--- a/excelFile/hero.xlsx
+++ b/excelFile/hero.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="15585" windowHeight="3165"/>
+    <workbookView xWindow="1545" yWindow="630" windowWidth="15585" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="heroConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="ageConfig" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>heroId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,46 +121,6 @@
   </si>
   <si>
     <t>rebirth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长体系id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼年期点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青春期点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年期点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年期点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,7 +486,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,10 +581,10 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -663,82 +622,10 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/hero.xlsx
+++ b/excelFile/hero.xlsx
@@ -14,36 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>heroId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>疲劳上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTired</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>心情上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,23 +40,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天赋id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talentId</t>
+    <t>英雄id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initRealize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领悟初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,59 +60,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initRealize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领悟初始值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟练度初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>initEffective</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转生值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rebirth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转生后疲劳上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转生后饥饿上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rebirthMaxTired</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rebirthMaxHungry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,149 +411,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
         <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
